--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Msmp-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Msmp-Ccr2.xlsx
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.070171333333334</v>
+        <v>0.06166766666666667</v>
       </c>
       <c r="N2">
-        <v>15.210514</v>
+        <v>0.185003</v>
       </c>
       <c r="O2">
-        <v>0.9792094653973811</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="P2">
-        <v>0.9792094653973812</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="Q2">
-        <v>0.008321841215111111</v>
+        <v>0.0001012171968888889</v>
       </c>
       <c r="R2">
-        <v>0.07489657093600001</v>
+        <v>0.0009109547720000001</v>
       </c>
       <c r="S2">
-        <v>0.9792094653973811</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="T2">
-        <v>0.9792094653973812</v>
+        <v>0.3189772891852935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>0.234632</v>
       </c>
       <c r="O3">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="P3">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="Q3">
         <v>0.0001283697742222222</v>
@@ -632,10 +632,10 @@
         <v>0.001155327968</v>
       </c>
       <c r="S3">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="T3">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.029439</v>
+        <v>0.05345100000000001</v>
       </c>
       <c r="N4">
-        <v>0.08831699999999999</v>
+        <v>0.160353</v>
       </c>
       <c r="O4">
-        <v>0.005685596315515734</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="P4">
-        <v>0.005685596315515735</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="Q4">
-        <v>4.8319212E-05</v>
+        <v>8.773090800000002E-05</v>
       </c>
       <c r="R4">
-        <v>0.000434872908</v>
+        <v>0.0007895781720000002</v>
       </c>
       <c r="S4">
-        <v>0.005685596315515734</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="T4">
-        <v>0.005685596315515735</v>
+        <v>0.2764764098567557</v>
       </c>
     </row>
   </sheetData>
